--- a/Data/sgRNA/Figure5/N100_mixture_result/100NM_19/100NM19_plot.xlsx
+++ b/Data/sgRNA/Figure5/N100_mixture_result/100NM_19/100NM19_plot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17160"/>
+    <workbookView windowHeight="17140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="15">
   <si>
     <t>base_name</t>
   </si>
@@ -1070,8 +1070,8 @@
   <sheetPr/>
   <dimension ref="A1:L305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="K136" sqref="K136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1108,7 +1108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:9">
       <c r="B2" s="2">
         <v>2210.36824068832</v>
       </c>
@@ -1127,8 +1127,12 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2">
+        <f>101-F2</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1152,8 +1156,12 @@
         <f>G2</f>
         <v>sgRNA2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3">
+        <f t="shared" ref="I3:I34" si="0">101-F3</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1167,18 +1175,22 @@
         <v>1.10916709260941</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:E35" si="0">E3</f>
+        <f t="shared" ref="E4:E35" si="1">E3</f>
         <v>3'</v>
       </c>
       <c r="F4">
         <v>9</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G35" si="1">G3</f>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <f t="shared" ref="G4:G35" si="2">G3</f>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1192,18 +1204,22 @@
         <v>2.12939376788139</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="2">
         <v>3564.56909980262</v>
       </c>
@@ -1214,18 +1230,22 @@
         <v>6.24193077640533</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F6">
         <v>11</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1239,18 +1259,22 @@
         <v>6.90107470111847</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1264,15 +1288,19 @@
         <v>8.10201243516604</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F8">
         <v>13</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1289,22 +1317,25 @@
         <v>8.30970431920687</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F9">
         <v>14</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-      <c r="I9" s="1"/>
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1318,18 +1349,22 @@
         <v>8.81989648497899</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F10">
         <v>15</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1343,18 +1378,22 @@
         <v>9.75000865217845</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F11">
         <v>16</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1368,18 +1407,22 @@
         <v>9.89900963462194</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F12">
         <v>17</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1393,18 +1436,22 @@
         <v>10.2873298600992</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F13">
         <v>18</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1418,18 +1465,22 @@
         <v>11.0369652008692</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F14">
         <v>19</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1443,18 +1494,22 @@
         <v>11.1001936014175</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F15">
         <v>20</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1468,18 +1523,22 @@
         <v>11.7325148677508</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F16">
         <v>21</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1493,18 +1552,22 @@
         <v>11.8770440693378</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F17">
         <v>22</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1518,18 +1581,22 @@
         <v>12.0577095762571</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F18">
         <v>23</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1543,18 +1610,22 @@
         <v>12.2699918087006</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F19">
         <v>24</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1568,18 +1639,22 @@
         <v>12.807579443423</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F20">
         <v>25</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1593,18 +1668,22 @@
         <v>12.807579443423</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F21">
         <v>26</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1618,18 +1697,22 @@
         <v>12.807579443423</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F22">
         <v>27</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1643,18 +1726,22 @@
         <v>13.349743926096</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F23">
         <v>28</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1668,18 +1755,22 @@
         <v>13.3768585280259</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F24">
         <v>29</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1693,18 +1784,22 @@
         <v>13.4672237093925</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F25">
         <v>30</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1718,18 +1813,22 @@
         <v>13.5892232771397</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F26">
         <v>31</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1743,18 +1842,22 @@
         <v>14.0095178679307</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F27">
         <v>32</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1768,18 +1871,22 @@
         <v>14.0095178679307</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F28">
         <v>33</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -1793,18 +1900,22 @@
         <v>14.3078598514875</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F29">
         <v>34</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -1818,18 +1929,22 @@
         <v>14.5519879674594</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F30">
         <v>35</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -1843,18 +1958,22 @@
         <v>14.4615743275166</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F31">
         <v>36</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -1868,18 +1987,22 @@
         <v>14.5519879674594</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F32">
         <v>37</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
@@ -1893,18 +2016,22 @@
         <v>14.6695364331881</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F33">
         <v>38</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
@@ -1918,18 +2045,22 @@
         <v>14.7328297173659</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F34">
         <v>39</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
@@ -1943,18 +2074,22 @@
         <v>14.9679946994464</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F35">
         <v>40</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="1"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
+        <f t="shared" si="2"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35:I65" si="3">101-F35</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" s="2">
         <v>13509.8411285061</v>
       </c>
@@ -1965,18 +2100,22 @@
         <v>15.0313204423269</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" ref="E36:E65" si="2">E35</f>
+        <f t="shared" ref="E36:E65" si="4">E35</f>
         <v>3'</v>
       </c>
       <c r="F36">
         <v>42</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" ref="G36:G65" si="3">G35</f>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <f t="shared" ref="G36:G65" si="5">G35</f>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
@@ -1990,18 +2129,22 @@
         <v>15.0584532196999</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F37">
         <v>43</v>
       </c>
       <c r="G37" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
@@ -2015,18 +2158,22 @@
         <v>15.1489085590521</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F38">
         <v>44</v>
       </c>
       <c r="G38" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
@@ -2040,18 +2187,22 @@
         <v>15.2122120852947</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F39">
         <v>45</v>
       </c>
       <c r="G39" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
@@ -2065,18 +2216,22 @@
         <v>15.2393461680094</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F40">
         <v>46</v>
       </c>
       <c r="G40" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
@@ -2090,18 +2245,22 @@
         <v>15.4791508173625</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F41">
         <v>47</v>
       </c>
       <c r="G41" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
         <v>10</v>
       </c>
@@ -2115,18 +2274,22 @@
         <v>15.4474792178154</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F42">
         <v>48</v>
       </c>
       <c r="G42" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -2140,18 +2303,22 @@
         <v>15.4791508173625</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F43">
         <v>49</v>
       </c>
       <c r="G43" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -2165,18 +2332,22 @@
         <v>15.510826652813</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F44">
         <v>50</v>
       </c>
       <c r="G44" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -2190,18 +2361,22 @@
         <v>15.6013312911669</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F45">
         <v>51</v>
       </c>
       <c r="G45" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
@@ -2215,18 +2390,22 @@
         <v>15.6284730191708</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F46">
         <v>52</v>
       </c>
       <c r="G46" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
         <v>12</v>
       </c>
@@ -2240,18 +2419,22 @@
         <v>15.8094636753877</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F47">
         <v>53</v>
       </c>
       <c r="G47" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
@@ -2265,18 +2448,22 @@
         <v>15.9271444495201</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F48">
         <v>54</v>
       </c>
       <c r="G48" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
@@ -2290,18 +2477,22 @@
         <v>15.8728427604516</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F49">
         <v>55</v>
       </c>
       <c r="G49" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
@@ -2315,18 +2506,22 @@
         <v>15.510826652813</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F50">
         <v>56</v>
       </c>
       <c r="G50" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="2" t="s">
         <v>12</v>
       </c>
@@ -2340,18 +2535,22 @@
         <v>16.081106874911</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F51">
         <v>57</v>
       </c>
       <c r="G51" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
@@ -2365,18 +2564,22 @@
         <v>16.081106874911</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F52">
         <v>58</v>
       </c>
       <c r="G52" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
         <v>10</v>
       </c>
@@ -2390,18 +2593,22 @@
         <v>16.0494089082559</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F53">
         <v>59</v>
       </c>
       <c r="G53" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="2" t="s">
         <v>11</v>
       </c>
@@ -2415,18 +2622,22 @@
         <v>16.1082754846096</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F54">
         <v>60</v>
       </c>
       <c r="G54" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="2" t="s">
         <v>10</v>
       </c>
@@ -2440,18 +2651,22 @@
         <v>16.1082754846096</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F55">
         <v>61</v>
       </c>
       <c r="G55" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
         <v>12</v>
       </c>
@@ -2465,18 +2680,22 @@
         <v>16.2894584512393</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F56">
         <v>62</v>
       </c>
       <c r="G56" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="2" t="s">
         <v>11</v>
       </c>
@@ -2490,18 +2709,22 @@
         <v>16.2622762596289</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F57">
         <v>63</v>
       </c>
       <c r="G57" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
@@ -2515,18 +2738,22 @@
         <v>16.2622762596289</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F58">
         <v>64</v>
       </c>
       <c r="G58" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -2540,18 +2767,22 @@
         <v>16.2894584512393</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F59">
         <v>65</v>
       </c>
       <c r="G59" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
         <v>10</v>
       </c>
@@ -2565,18 +2796,22 @@
         <v>16.3166499689897</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F60">
         <v>66</v>
       </c>
       <c r="G60" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="2" t="s">
         <v>10</v>
       </c>
@@ -2590,18 +2825,22 @@
         <v>16.3529034689744</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F61">
         <v>67</v>
       </c>
       <c r="G61" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I61">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="2" t="s">
         <v>11</v>
       </c>
@@ -2615,18 +2854,22 @@
         <v>16.3800825432618</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F62">
         <v>68</v>
       </c>
       <c r="G62" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I62">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="2" t="s">
         <v>11</v>
       </c>
@@ -2640,18 +2883,22 @@
         <v>16.4072605923494</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F63">
         <v>69</v>
       </c>
       <c r="G63" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I63">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="2" t="s">
         <v>12</v>
       </c>
@@ -2665,18 +2912,22 @@
         <v>16.5296352521261</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F64">
         <v>70</v>
       </c>
       <c r="G64" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I64">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="2" t="s">
         <v>9</v>
       </c>
@@ -2690,18 +2941,22 @@
         <v>16.4979137694518</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3'</v>
       </c>
       <c r="F65">
         <v>71</v>
       </c>
       <c r="G65" t="str">
+        <f t="shared" si="5"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I65">
         <f t="shared" si="3"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2723,8 +2978,12 @@
       <c r="G66" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="I66">
+        <f>F66</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="2" t="s">
         <v>12</v>
       </c>
@@ -2748,8 +3007,12 @@
         <f>G66</f>
         <v>sgRNA2</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="I67">
+        <f t="shared" ref="I67:I98" si="6">F67</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="2" t="s">
         <v>11</v>
       </c>
@@ -2763,18 +3026,22 @@
         <v>0.752542733716965</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" ref="E68:E99" si="4">E67</f>
+        <f t="shared" ref="E68:E99" si="7">E67</f>
         <v>5'</v>
       </c>
       <c r="F68">
         <v>6</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" ref="G68:G99" si="5">G67</f>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <f t="shared" ref="G68:G99" si="8">G67</f>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -2788,18 +3055,22 @@
         <v>0.811225268809001</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F69">
         <v>7</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="2" t="s">
         <v>12</v>
       </c>
@@ -2813,18 +3084,22 @@
         <v>0.960190401045482</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F70">
         <v>8</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="2" t="s">
         <v>9</v>
       </c>
@@ -2838,18 +3113,22 @@
         <v>1.05047822750409</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F71">
         <v>9</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
       <c r="B72" s="2">
         <v>3212.44398641587</v>
       </c>
@@ -2860,18 +3139,22 @@
         <v>3.51071123437881</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F72">
         <v>10</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
@@ -2885,18 +3168,22 @@
         <v>5.49251545227369</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F73">
         <v>11</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="2" t="s">
         <v>12</v>
       </c>
@@ -2910,18 +3197,22 @@
         <v>6.9281636174202</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F74">
         <v>12</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
@@ -2935,18 +3226,22 @@
         <v>7.53313039299647</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F75">
         <v>13</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="2" t="s">
         <v>9</v>
       </c>
@@ -2960,18 +3255,22 @@
         <v>8.16070627725919</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F76">
         <v>14</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="2" t="s">
         <v>9</v>
       </c>
@@ -2985,18 +3284,22 @@
         <v>8.72959374345144</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F77">
         <v>15</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
@@ -3010,18 +3313,22 @@
         <v>9.42039760904312</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F78">
         <v>16</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="2" t="s">
         <v>12</v>
       </c>
@@ -3035,18 +3342,22 @@
         <v>10.052524301974</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F79">
         <v>17</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="2" t="s">
         <v>10</v>
       </c>
@@ -3060,18 +3371,22 @@
         <v>10.3505480762005</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F80">
         <v>18</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="2" t="s">
         <v>11</v>
       </c>
@@ -3085,18 +3400,22 @@
         <v>10.6215028182348</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F81">
         <v>19</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
@@ -3110,18 +3429,22 @@
         <v>10.9195526675065</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F82">
         <v>20</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
@@ -3135,18 +3458,22 @@
         <v>11.158901019462</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F83">
         <v>21</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="2" t="s">
         <v>11</v>
       </c>
@@ -3160,18 +3487,22 @@
         <v>11.4299048439344</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F84">
         <v>22</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="2" t="s">
         <v>9</v>
       </c>
@@ -3185,18 +3516,22 @@
         <v>11.7009003098488</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F85">
         <v>23</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="2" t="s">
         <v>12</v>
       </c>
@@ -3210,18 +3545,22 @@
         <v>12.0893228606065</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F86">
         <v>24</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="2" t="s">
         <v>9</v>
       </c>
@@ -3235,18 +3574,22 @@
         <v>12.2699918087006</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F87">
         <v>25</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="2" t="s">
         <v>11</v>
       </c>
@@ -3260,18 +3603,22 @@
         <v>12.4506747678598</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F88">
         <v>26</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="2" t="s">
         <v>11</v>
       </c>
@@ -3285,18 +3632,22 @@
         <v>12.6268591340065</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F89">
         <v>27</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="2" t="s">
         <v>9</v>
       </c>
@@ -3310,18 +3661,22 @@
         <v>12.7804678177516</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F90">
         <v>28</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="2" t="s">
         <v>10</v>
       </c>
@@ -3335,18 +3690,22 @@
         <v>12.8979364510059</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F91">
         <v>29</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="2" t="s">
         <v>9</v>
       </c>
@@ -3360,18 +3719,22 @@
         <v>13.0786357021014</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F92">
         <v>30</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="2" t="s">
         <v>12</v>
       </c>
@@ -3385,18 +3748,22 @@
         <v>13.3226278340499</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F93">
         <v>31</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="2" t="s">
         <v>11</v>
       </c>
@@ -3410,18 +3777,22 @@
         <v>13.4401132519722</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F94">
         <v>32</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="2" t="s">
         <v>11</v>
       </c>
@@ -3435,18 +3806,22 @@
         <v>13.5575948770523</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F95">
         <v>33</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="2" t="s">
         <v>10</v>
       </c>
@@ -3460,18 +3835,22 @@
         <v>13.6796057259719</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F96">
         <v>34</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="2" t="s">
         <v>10</v>
       </c>
@@ -3485,18 +3864,22 @@
         <v>13.7699848011812</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F97">
         <v>35</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="2" t="s">
         <v>9</v>
       </c>
@@ -3510,18 +3893,22 @@
         <v>13.8920025841077</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F98">
         <v>36</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="2" t="s">
         <v>11</v>
       </c>
@@ -3535,18 +3922,22 @@
         <v>14.0999116833687</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5'</v>
       </c>
       <c r="F99">
         <v>38</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="5"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <f t="shared" si="8"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I99">
+        <f t="shared" ref="I99:I126" si="9">F99</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="2" t="s">
         <v>12</v>
       </c>
@@ -3560,18 +3951,22 @@
         <v>14.3078598514875</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" ref="E100:E126" si="6">E99</f>
+        <f t="shared" ref="E100:E126" si="10">E99</f>
         <v>5'</v>
       </c>
       <c r="F100">
         <v>39</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" ref="G100:G126" si="7">G99</f>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <f t="shared" ref="G100:G126" si="11">G99</f>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="2" t="s">
         <v>10</v>
       </c>
@@ -3585,18 +3980,22 @@
         <v>14.3711564099471</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F101">
         <v>40</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="2" t="s">
         <v>12</v>
       </c>
@@ -3610,18 +4009,22 @@
         <v>15.1489085590521</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F102">
         <v>44</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
       <c r="B103" s="2">
         <v>14425.9057842853</v>
       </c>
@@ -3632,18 +4035,22 @@
         <v>14.7599613682111</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F103">
         <v>45</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
         <v>10</v>
       </c>
@@ -3657,18 +4064,22 @@
         <v>14.8232635593096</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F104">
         <v>46</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="2" t="s">
         <v>12</v>
       </c>
@@ -3682,18 +4093,22 @@
         <v>14.9679946994464</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F105">
         <v>47</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="2" t="s">
         <v>12</v>
       </c>
@@ -3707,18 +4122,22 @@
         <v>15.0584532196999</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F106">
         <v>48</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="2" t="s">
         <v>11</v>
       </c>
@@ -3732,18 +4151,22 @@
         <v>15.1217710927804</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F107">
         <v>49</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
         <v>9</v>
       </c>
@@ -3757,18 +4180,22 @@
         <v>15.1805593684991</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F108">
         <v>50</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="2" t="s">
         <v>10</v>
       </c>
@@ -3782,18 +4209,22 @@
         <v>15.2122120852947</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F109">
         <v>51</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="2" t="s">
         <v>9</v>
       </c>
@@ -3807,18 +4238,22 @@
         <v>15.2710217173576</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F110">
         <v>52</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="2" t="s">
         <v>10</v>
       </c>
@@ -3832,18 +4267,22 @@
         <v>15.3026837761879</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F111">
         <v>53</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="2" t="s">
         <v>12</v>
       </c>
@@ -3857,18 +4296,22 @@
         <v>15.4203347440243</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F112">
         <v>54</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="2" t="s">
         <v>10</v>
       </c>
@@ -3882,18 +4325,22 @@
         <v>15.4474792178154</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F113">
         <v>55</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9">
       <c r="B114" s="2">
         <v>17974.4008885973</v>
       </c>
@@ -3904,18 +4351,22 @@
         <v>15.510826652813</v>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F114">
         <v>56</v>
       </c>
       <c r="G114" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="2" t="s">
         <v>10</v>
       </c>
@@ -3929,18 +4380,22 @@
         <v>15.5379901186307</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F115">
         <v>57</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="2" t="s">
         <v>11</v>
       </c>
@@ -3954,18 +4409,22 @@
         <v>15.6013312911669</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F116">
         <v>58</v>
       </c>
       <c r="G116" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="2" t="s">
         <v>9</v>
       </c>
@@ -3979,18 +4438,22 @@
         <v>15.6284730191708</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F117">
         <v>59</v>
       </c>
       <c r="G117" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="2" t="s">
         <v>11</v>
       </c>
@@ -4004,18 +4467,22 @@
         <v>15.6918209349791</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F118">
         <v>60</v>
       </c>
       <c r="G118" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="2"/>
       <c r="B119" s="2">
         <v>20827.6967718414</v>
@@ -4027,18 +4494,22 @@
         <v>15.899989958175</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F119">
         <v>65</v>
       </c>
       <c r="G119" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="9"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="2" t="s">
         <v>12</v>
       </c>
@@ -4052,18 +4523,22 @@
         <v>16.0177154258569</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F120">
         <v>66</v>
       </c>
       <c r="G120" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="2" t="s">
         <v>12</v>
       </c>
@@ -4077,18 +4552,22 @@
         <v>16.081106874911</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F121">
         <v>67</v>
       </c>
       <c r="G121" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="2" t="s">
         <v>11</v>
       </c>
@@ -4102,18 +4581,22 @@
         <v>16.1082754846096</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F122">
         <v>68</v>
       </c>
       <c r="G122" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="2" t="s">
         <v>12</v>
       </c>
@@ -4127,18 +4610,22 @@
         <v>16.1988641933282</v>
       </c>
       <c r="E123" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F123">
         <v>69</v>
       </c>
       <c r="G123" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="2" t="s">
         <v>10</v>
       </c>
@@ -4152,18 +4639,22 @@
         <v>16.1988641933282</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F124">
         <v>70</v>
       </c>
       <c r="G124" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="2" t="s">
         <v>10</v>
       </c>
@@ -4177,18 +4668,22 @@
         <v>16.2305700178623</v>
       </c>
       <c r="E125" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F125">
         <v>71</v>
       </c>
       <c r="G125" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="2" t="s">
         <v>9</v>
       </c>
@@ -4202,18 +4697,22 @@
         <v>16.2622762596289</v>
       </c>
       <c r="E126" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5'</v>
       </c>
       <c r="F126">
         <v>72</v>
       </c>
       <c r="G126" t="str">
-        <f t="shared" si="7"/>
-        <v>sgRNA2</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7">
+        <f t="shared" si="11"/>
+        <v>sgRNA2</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9">
       <c r="B127" s="2">
         <v>2846.39363035869</v>
       </c>
@@ -4232,8 +4731,12 @@
       <c r="G127" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="I127">
+        <f>101-F127</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="2" t="s">
         <v>10</v>
       </c>
@@ -4257,8 +4760,12 @@
         <f>G127</f>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="I128">
+        <f t="shared" ref="I128:I144" si="12">101-F128</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="2" t="s">
         <v>11</v>
       </c>
@@ -4272,18 +4779,22 @@
         <v>0.960190401045482</v>
       </c>
       <c r="E129" t="str">
-        <f t="shared" ref="E129:E142" si="8">E128</f>
+        <f t="shared" ref="E129:E142" si="13">E128</f>
         <v>3'</v>
       </c>
       <c r="F129">
         <v>11</v>
       </c>
       <c r="G129" t="str">
-        <f t="shared" ref="G129:G142" si="9">G128</f>
+        <f t="shared" ref="G129:G142" si="14">G128</f>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="I129">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="2" t="s">
         <v>9</v>
       </c>
@@ -4297,18 +4808,22 @@
         <v>2.03910293536186</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3'</v>
       </c>
       <c r="F130">
         <v>12</v>
       </c>
       <c r="G130" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="I130">
+        <f t="shared" si="12"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="2" t="s">
         <v>12</v>
       </c>
@@ -4322,18 +4837,22 @@
         <v>5.33901436882019</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3'</v>
       </c>
       <c r="F131">
         <v>13</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="I131">
+        <f t="shared" si="12"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="2" t="s">
         <v>9</v>
       </c>
@@ -4347,18 +4866,22 @@
         <v>5.88076765891711</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3'</v>
       </c>
       <c r="F132">
         <v>14</v>
       </c>
       <c r="G132" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="I132">
+        <f t="shared" si="12"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="2" t="s">
         <v>10</v>
       </c>
@@ -4372,18 +4895,22 @@
         <v>6.44959653573036</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3'</v>
       </c>
       <c r="F133">
         <v>15</v>
       </c>
       <c r="G133" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="I133">
+        <f t="shared" si="12"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="2" t="s">
         <v>10</v>
       </c>
@@ -4397,18 +4924,22 @@
         <v>7.17195044315656</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3'</v>
       </c>
       <c r="F134">
         <v>16</v>
       </c>
       <c r="G134" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="I134">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="2" t="s">
         <v>12</v>
       </c>
@@ -4422,18 +4953,22 @@
         <v>8.37291555957794</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3'</v>
       </c>
       <c r="F135">
         <v>17</v>
       </c>
       <c r="G135" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="I135">
+        <f t="shared" si="12"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2" t="s">
         <v>10</v>
       </c>
@@ -4447,18 +4982,26 @@
         <v>8.76119903481801</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3'</v>
       </c>
       <c r="F136">
         <v>18</v>
       </c>
       <c r="G136" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="I136">
+        <f t="shared" si="12"/>
+        <v>83</v>
+      </c>
+      <c r="K136">
+        <f>18+27</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4472,18 +5015,22 @@
         <v>9.87191731886864</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3'</v>
       </c>
       <c r="F137">
         <v>20</v>
       </c>
       <c r="G137" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="I137">
+        <f t="shared" si="12"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="2" t="s">
         <v>11</v>
       </c>
@@ -4497,18 +5044,22 @@
         <v>10.1428301667849</v>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3'</v>
       </c>
       <c r="F138">
         <v>21</v>
       </c>
       <c r="G138" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="I138">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="2" t="s">
         <v>12</v>
       </c>
@@ -4522,18 +5073,22 @@
         <v>11.3711857254982</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3'</v>
       </c>
       <c r="F139">
         <v>23</v>
       </c>
       <c r="G139" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="I139">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="2" t="s">
         <v>12</v>
       </c>
@@ -4547,18 +5102,22 @@
         <v>11.9402771587849</v>
       </c>
       <c r="E140" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3'</v>
       </c>
       <c r="F140">
         <v>24</v>
       </c>
       <c r="G140" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="I140">
+        <f t="shared" si="12"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="2" t="s">
         <v>12</v>
       </c>
@@ -4572,18 +5131,22 @@
         <v>12.7172227000872</v>
       </c>
       <c r="E141" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3'</v>
       </c>
       <c r="F141">
         <v>26</v>
       </c>
       <c r="G141" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="I141">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="2" t="s">
         <v>9</v>
       </c>
@@ -4607,8 +5170,12 @@
         <f>G141</f>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="I142">
+        <f t="shared" si="12"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="2" t="s">
         <v>11</v>
       </c>
@@ -4632,8 +5199,12 @@
         <f>G142</f>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="I143">
+        <f t="shared" si="12"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="2" t="s">
         <v>11</v>
       </c>
@@ -4657,8 +5228,12 @@
         <f>G141</f>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="145" spans="2:7">
+      <c r="I144">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9">
       <c r="B145" s="2">
         <v>2667.3747153032</v>
       </c>
@@ -4668,19 +5243,22 @@
       <c r="D145" s="2">
         <v>0.960190401045482</v>
       </c>
-      <c r="E145" t="str">
-        <f t="shared" ref="E145:E171" si="10">E142</f>
-        <v>3'</v>
+      <c r="E145" t="s">
+        <v>13</v>
       </c>
       <c r="F145">
         <v>8</v>
       </c>
       <c r="G145" t="str">
-        <f t="shared" ref="G145:G171" si="11">G142</f>
+        <f t="shared" ref="G145:G171" si="15">G142</f>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="I145">
+        <f>F145</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="2" t="s">
         <v>9</v>
       </c>
@@ -4693,19 +5271,22 @@
       <c r="D146" s="2">
         <v>1.1407674586455</v>
       </c>
-      <c r="E146" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+      <c r="E146" t="s">
+        <v>13</v>
       </c>
       <c r="F146">
         <v>9</v>
       </c>
       <c r="G146" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="I146">
+        <f t="shared" ref="I146:I171" si="16">F146</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="2" t="s">
         <v>9</v>
       </c>
@@ -4719,18 +5300,22 @@
         <v>3.77705395973523</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f>E146</f>
+        <v>5'</v>
       </c>
       <c r="F147">
         <v>10</v>
       </c>
       <c r="G147" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="I147">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="2" t="s">
         <v>10</v>
       </c>
@@ -4744,18 +5329,22 @@
         <v>5.06815010067622</v>
       </c>
       <c r="E148" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" ref="E145:E171" si="17">E145</f>
+        <v>5'</v>
       </c>
       <c r="F148">
         <v>11</v>
       </c>
       <c r="G148" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="I148">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="2" t="s">
         <v>10</v>
       </c>
@@ -4769,18 +5358,22 @@
         <v>6.17872603492737</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F149">
         <v>12</v>
       </c>
       <c r="G149" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="I149">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="2" t="s">
         <v>9</v>
       </c>
@@ -4794,18 +5387,22 @@
         <v>6.90107470111847</v>
       </c>
       <c r="E150" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F150">
         <v>13</v>
       </c>
       <c r="G150" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="I150">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="2" t="s">
         <v>12</v>
       </c>
@@ -4819,18 +5416,22 @@
         <v>7.85819978472392</v>
       </c>
       <c r="E151" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F151">
         <v>14</v>
       </c>
       <c r="G151" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="I151">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="2" t="s">
         <v>9</v>
       </c>
@@ -4844,18 +5445,22 @@
         <v>8.37291555957794</v>
       </c>
       <c r="E152" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F152">
         <v>15</v>
       </c>
       <c r="G152" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="I152">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="2" t="s">
         <v>11</v>
       </c>
@@ -4869,18 +5474,22 @@
         <v>8.85150061802864</v>
       </c>
       <c r="E153" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F153">
         <v>16</v>
       </c>
       <c r="G153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="I153">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="2" t="s">
         <v>9</v>
       </c>
@@ -4894,18 +5503,22 @@
         <v>9.33009203430812</v>
       </c>
       <c r="E154" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F154">
         <v>17</v>
       </c>
       <c r="G154" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="I154">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="2" t="s">
         <v>9</v>
       </c>
@@ -4919,18 +5532,22 @@
         <v>9.75000865217845</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F155">
         <v>18</v>
       </c>
       <c r="G155" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="I155">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="2" t="s">
         <v>11</v>
       </c>
@@ -4944,18 +5561,22 @@
         <v>10.1112240608215</v>
       </c>
       <c r="E156" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F156">
         <v>19</v>
       </c>
       <c r="G156" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="I156">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="2" t="s">
         <v>10</v>
       </c>
@@ -4969,18 +5590,22 @@
         <v>10.4408646599134</v>
       </c>
       <c r="E157" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F157">
         <v>20</v>
       </c>
       <c r="G157" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="I157">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="2" t="s">
         <v>9</v>
       </c>
@@ -4994,18 +5619,22 @@
         <v>10.7389177357833</v>
       </c>
       <c r="E158" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F158">
         <v>21</v>
       </c>
       <c r="G158" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="I158">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="2" t="s">
         <v>11</v>
       </c>
@@ -5019,18 +5648,22 @@
         <v>11.0098693922838</v>
       </c>
       <c r="E159" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F159">
         <v>22</v>
       </c>
       <c r="G159" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="I159">
+        <f t="shared" si="16"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="2" t="s">
         <v>11</v>
       </c>
@@ -5044,18 +5677,22 @@
         <v>11.2808505530834</v>
       </c>
       <c r="E160" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F160">
         <v>23</v>
       </c>
       <c r="G160" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="I160">
+        <f t="shared" si="16"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="2" t="s">
         <v>11</v>
       </c>
@@ -5069,18 +5706,22 @@
         <v>11.4886209682306</v>
       </c>
       <c r="E161" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F161">
         <v>24</v>
       </c>
       <c r="G161" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="I161">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="2" t="s">
         <v>11</v>
       </c>
@@ -5094,18 +5735,22 @@
         <v>11.7325148677508</v>
       </c>
       <c r="E162" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F162">
         <v>25</v>
       </c>
       <c r="G162" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="I162">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="2" t="s">
         <v>12</v>
       </c>
@@ -5119,18 +5764,22 @@
         <v>12.1209398662726</v>
       </c>
       <c r="E163" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F163">
         <v>26</v>
       </c>
       <c r="G163" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="I163">
+        <f t="shared" si="16"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="2" t="s">
         <v>9</v>
       </c>
@@ -5144,18 +5793,22 @@
         <v>12.2699918087006</v>
       </c>
       <c r="E164" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F164">
         <v>27</v>
       </c>
       <c r="G164" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="I164">
+        <f t="shared" si="16"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="2" t="s">
         <v>12</v>
       </c>
@@ -5169,18 +5822,22 @@
         <v>12.5997521416028</v>
       </c>
       <c r="E165" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F165">
         <v>28</v>
       </c>
       <c r="G165" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="I165">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="2" t="s">
         <v>9</v>
       </c>
@@ -5194,18 +5851,22 @@
         <v>12.7172227000872</v>
       </c>
       <c r="E166" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F166">
         <v>29</v>
       </c>
       <c r="G166" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="I166">
+        <f t="shared" si="16"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="2" t="s">
         <v>10</v>
       </c>
@@ -5219,18 +5880,22 @@
         <v>12.8708330527624</v>
       </c>
       <c r="E167" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F167">
         <v>30</v>
       </c>
       <c r="G167" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="I167">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="2" t="s">
         <v>11</v>
       </c>
@@ -5244,18 +5909,22 @@
         <v>12.9882879848957</v>
       </c>
       <c r="E168" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F168">
         <v>31</v>
       </c>
       <c r="G168" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="I168">
+        <f t="shared" si="16"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="2" t="s">
         <v>12</v>
       </c>
@@ -5269,18 +5938,22 @@
         <v>13.2593660946369</v>
       </c>
       <c r="E169" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F169">
         <v>32</v>
       </c>
       <c r="G169" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="I169">
+        <f t="shared" si="16"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="2" t="s">
         <v>9</v>
       </c>
@@ -5294,18 +5967,22 @@
         <v>13.4130033588092</v>
       </c>
       <c r="E170" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F170">
         <v>33</v>
       </c>
       <c r="G170" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="I170">
+        <f t="shared" si="16"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="2" t="s">
         <v>12</v>
       </c>
@@ -5319,15 +5996,19 @@
         <v>13.6479777510643</v>
       </c>
       <c r="E171" t="str">
-        <f t="shared" si="10"/>
-        <v>3'</v>
+        <f t="shared" si="17"/>
+        <v>5'</v>
       </c>
       <c r="F171">
         <v>34</v>
       </c>
       <c r="G171" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>sgRNA1</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="16"/>
+        <v>34</v>
       </c>
     </row>
     <row r="237" spans="5:6">
